--- a/windows/cpu_windows.xlsx
+++ b/windows/cpu_windows.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>03_6</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>20_6</t>
+  </si>
+  <si>
+    <t>21_12</t>
+  </si>
+  <si>
+    <t>21_6</t>
+  </si>
+  <si>
+    <t>22_12</t>
+  </si>
+  <si>
+    <t>22_6</t>
   </si>
 </sst>
 </file>
@@ -450,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1000,6 +1012,70 @@
         <v>3.35</v>
       </c>
     </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73">
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75">
+        <v>8.140000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76">
+        <v>1.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/windows/cpu_windows.xlsx
+++ b/windows/cpu_windows.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="60">
   <si>
     <t>03_6</t>
   </si>
@@ -131,6 +131,69 @@
   </si>
   <si>
     <t>22_6</t>
+  </si>
+  <si>
+    <t>23_12</t>
+  </si>
+  <si>
+    <t>23_6</t>
+  </si>
+  <si>
+    <t>24_12</t>
+  </si>
+  <si>
+    <t>24_6</t>
+  </si>
+  <si>
+    <t>25_12</t>
+  </si>
+  <si>
+    <t>25_6</t>
+  </si>
+  <si>
+    <t>26_12</t>
+  </si>
+  <si>
+    <t>26_6</t>
+  </si>
+  <si>
+    <t>27_12</t>
+  </si>
+  <si>
+    <t>27_6</t>
+  </si>
+  <si>
+    <t>28_12</t>
+  </si>
+  <si>
+    <t>28_6</t>
+  </si>
+  <si>
+    <t>29_12</t>
+  </si>
+  <si>
+    <t>29_6</t>
+  </si>
+  <si>
+    <t>30_12</t>
+  </si>
+  <si>
+    <t>30_6</t>
+  </si>
+  <si>
+    <t>01_12</t>
+  </si>
+  <si>
+    <t>01_6</t>
+  </si>
+  <si>
+    <t>02_12</t>
+  </si>
+  <si>
+    <t>02_6</t>
+  </si>
+  <si>
+    <t>03_12</t>
   </si>
 </sst>
 </file>
@@ -462,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1076,6 +1139,398 @@
         <v>1.37</v>
       </c>
     </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83">
+        <v>7.01</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>46</v>
+      </c>
+      <c r="B93">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100">
+        <v>40.3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>50</v>
+      </c>
+      <c r="B101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>51</v>
+      </c>
+      <c r="B104">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105">
+        <v>35.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>55</v>
+      </c>
+      <c r="B110">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>56</v>
+      </c>
+      <c r="B111">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>55</v>
+      </c>
+      <c r="B112">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>56</v>
+      </c>
+      <c r="B113">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>57</v>
+      </c>
+      <c r="B114">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>58</v>
+      </c>
+      <c r="B115">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>57</v>
+      </c>
+      <c r="B116">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>58</v>
+      </c>
+      <c r="B117">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>59</v>
+      </c>
+      <c r="B118">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>59</v>
+      </c>
+      <c r="B120">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125">
+        <v>16.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
